--- a/Weekly Forecasts/Week_Divisional.xlsx
+++ b/Weekly Forecasts/Week_Divisional.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NFLPred2014\NFLPrediction2014\Weekly Forecasts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" r:id="rId1"/>
     <sheet name="Sunday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -74,12 +79,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0%"/>
     <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +150,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +236,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,7 +447,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.57296740000000002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.42703259999999998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.75016479999999996</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.24983520000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>25.5627882</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22.436117599999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25.010231399999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>14.624371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -440,349 +647,155 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0.5729674</v>
+        <v>0.53146479999999996</v>
       </c>
       <c r="C2" s="3">
-        <v>0.4270326</v>
+        <v>0.46853519999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>0.7501648</v>
+        <v>0.55194049999999995</v>
       </c>
       <c r="F2" s="3">
-        <v>0.2498352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.4480595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>25.5627882</v>
+        <v>29.811000799999999</v>
       </c>
       <c r="C3" s="4">
-        <v>22.4361176</v>
+        <v>28.275230000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>25.0102314</v>
+        <v>30.940067800000001</v>
       </c>
       <c r="F3" s="4">
-        <v>14.624371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>28.438090599999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
       <c r="E4" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.5314648</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.4685352</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.5519405</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.4480595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>29.8110008</v>
-      </c>
-      <c r="C3" s="4">
-        <v>28.27523</v>
-      </c>
-      <c r="E3" s="4">
-        <v>30.9400678</v>
-      </c>
-      <c r="F3" s="4">
-        <v>28.4380906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
         <v>48</v>
       </c>
       <c r="C9" s="4">
@@ -795,7 +808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
